--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt 201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt 201819.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BAA56729-B0D1-413C-879E-482B9CBA16D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEB508B2-0B52-48B2-AF66-5152D43F0A6E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCourtOrderAEO1971civildebt" sheetId="2" r:id="rId2"/>
     <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -64,9 +64,6 @@
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
-    <t>GeneralTaxRateWeekly</t>
-  </si>
-  <si>
     <t>ProcessPayrollForWeeklyTax</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>TestCourtOrderAEO1971civildebt</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,13 +614,13 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,13 +697,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -717,16 +717,16 @@
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -743,7 +743,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
     <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
@@ -762,34 +762,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -803,32 +803,32 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
@@ -864,37 +864,37 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -908,35 +908,35 @@
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
